--- a/Experiments/Part3-Producer/DocPop/Setting 1 Results/DocPop-prod-S1.xlsx
+++ b/Experiments/Part3-Producer/DocPop/Setting 1 Results/DocPop-prod-S1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12840" yWindow="20" windowWidth="25600" windowHeight="16620" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="3380" yWindow="100" windowWidth="23200" windowHeight="13660" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="10 RUns" sheetId="1" r:id="rId1"/>
@@ -681,8 +681,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2136383288"/>
-        <c:axId val="2136386264"/>
+        <c:axId val="2144520088"/>
+        <c:axId val="2137359912"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -959,11 +959,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2136392536"/>
-        <c:axId val="2136389592"/>
+        <c:axId val="2143968344"/>
+        <c:axId val="2144187160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2136383288"/>
+        <c:axId val="2144520088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,7 +972,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136386264"/>
+        <c:crossAx val="2137359912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -980,7 +980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2136386264"/>
+        <c:axId val="2137359912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -991,12 +991,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136383288"/>
+        <c:crossAx val="2144520088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2136389592"/>
+        <c:axId val="2144187160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1006,12 +1006,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136392536"/>
+        <c:crossAx val="2143968344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2136392536"/>
+        <c:axId val="2143968344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,7 +1020,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136389592"/>
+        <c:crossAx val="2144187160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1049,16 +1049,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16877,10 +16877,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17752,6 +17752,12 @@
       </c>
       <c r="C79">
         <v>3416.5555555555557</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81">
+        <f>SUM(C2:C79)</f>
+        <v>112817.11111111109</v>
       </c>
     </row>
   </sheetData>
